--- a/Rubric-Sprint 2v1.xlsx
+++ b/Rubric-Sprint 2v1.xlsx
@@ -434,10 +434,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="172" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="172" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -965,16 +965,16 @@
         <v>10</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5"/>
@@ -983,10 +983,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
@@ -997,10 +997,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
@@ -1011,34 +1011,34 @@
         <v>39</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
